--- a/docs/MVB/铁八（HXD1）/CAB(HXD1)/HXD1C-CAB-B机车-航插配置表.xlsx
+++ b/docs/MVB/铁八（HXD1）/CAB(HXD1)/HXD1C-CAB-B机车-航插配置表.xlsx
@@ -1847,7 +1847,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="$A112:$XFD112"/>
+      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4713,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" s="7">
         <v>5</v>

--- a/docs/MVB/铁八（HXD1）/CAB(HXD1)/HXD1C-CAB-B机车-航插配置表.xlsx
+++ b/docs/MVB/铁八（HXD1）/CAB(HXD1)/HXD1C-CAB-B机车-航插配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,14 +763,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,345 +828,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1195,251 +865,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1488,57 +916,10 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1836,21 +1217,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="8" style="7" customWidth="1"/>
@@ -1864,7 +1244,7 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -2053,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:9">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +1462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -2186,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +1595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
@@ -2238,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -2319,7 +1699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -2348,7 +1728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +1757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
@@ -2406,7 +1786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>10</v>
       </c>
@@ -2427,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +1852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
@@ -2495,7 +1875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>10</v>
       </c>
@@ -2515,7 +1895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>10</v>
       </c>
@@ -2544,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>10</v>
       </c>
@@ -2642,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:9">
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:9">
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:9">
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:9">
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>10</v>
       </c>
@@ -2840,7 +2220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:9">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
         <v>10</v>
       </c>
@@ -2869,7 +2249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:9">
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2263,6 @@
       <c r="E40" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="6"/>
       <c r="G40" s="6">
         <v>0</v>
       </c>
@@ -2894,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:9">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>10</v>
       </c>
@@ -2905,8 +2284,6 @@
         <v>91</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
       <c r="G41" s="6">
         <v>0</v>
       </c>
@@ -2917,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:9">
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +2352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" s="6" customFormat="1" spans="1:9">
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +2381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" s="6" customFormat="1" spans="1:9">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +2410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" s="6" customFormat="1" spans="1:9">
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +2439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" s="6" customFormat="1" spans="1:9">
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +2468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" spans="1:9">
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
         <v>10</v>
       </c>
@@ -3102,8 +2479,6 @@
         <v>105</v>
       </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
       <c r="G48" s="6">
         <v>0</v>
       </c>
@@ -3114,7 +2489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" s="6" customFormat="1" spans="1:9">
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>10</v>
       </c>
@@ -3143,7 +2518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" spans="1:9">
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>10</v>
       </c>
@@ -3157,7 +2532,6 @@
       <c r="E50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="6"/>
       <c r="G50" s="6">
         <v>0</v>
       </c>
@@ -3168,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" spans="1:9">
+    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +2556,6 @@
       <c r="E51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="6"/>
       <c r="G51" s="6">
         <v>0</v>
       </c>
@@ -3193,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:9">
+    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
@@ -3207,7 +2580,6 @@
       <c r="E52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="6"/>
       <c r="G52" s="6">
         <v>0</v>
       </c>
@@ -3218,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" spans="1:9">
+    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>10</v>
       </c>
@@ -3229,8 +2601,6 @@
         <v>21</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
       <c r="G53" s="6">
         <v>0</v>
       </c>
@@ -3241,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:9">
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +2625,6 @@
       <c r="E54" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="6"/>
       <c r="G54" s="6">
         <v>0</v>
       </c>
@@ -3266,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:9">
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:9">
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>10</v>
       </c>
@@ -3309,7 +2678,6 @@
       <c r="E56" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="6"/>
       <c r="G56" s="6">
         <v>0</v>
       </c>
@@ -3320,7 +2688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:9">
+    <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
         <v>10</v>
       </c>
@@ -3331,8 +2699,6 @@
         <v>29</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
       <c r="G57" s="6">
         <v>0</v>
       </c>
@@ -3343,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" s="6" customFormat="1" spans="1:9">
+    <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:9">
+    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +2757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>10</v>
       </c>
@@ -3420,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:9">
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
         <v>10</v>
       </c>
@@ -3441,7 +2807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
@@ -3467,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>10</v>
       </c>
@@ -3520,7 +2886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>10</v>
       </c>
@@ -3542,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>10</v>
       </c>
@@ -3565,7 +2931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +2954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>10</v>
       </c>
@@ -3617,7 +2983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>10</v>
       </c>
@@ -3637,7 +3003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>10</v>
       </c>
@@ -3687,7 +3053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>10</v>
       </c>
@@ -3736,7 +3102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>10</v>
       </c>
@@ -3820,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>10</v>
       </c>
@@ -3875,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>10</v>
       </c>
@@ -3901,7 +3267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>10</v>
       </c>
@@ -3959,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>10</v>
       </c>
@@ -3982,7 +3348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>10</v>
       </c>
@@ -4005,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>10</v>
       </c>
@@ -4034,7 +3400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>10</v>
       </c>
@@ -4058,7 +3424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>10</v>
       </c>
@@ -4078,7 +3444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +3464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>10</v>
       </c>
@@ -4118,7 +3484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>10</v>
       </c>
@@ -4138,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" ht="16.5" customHeight="1" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +3533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>10</v>
       </c>
@@ -4196,7 +3562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>10</v>
       </c>
@@ -4219,7 +3585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>10</v>
       </c>
@@ -4239,7 +3605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>10</v>
       </c>
@@ -4268,7 +3634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>10</v>
       </c>
@@ -4297,7 +3663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +3686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>10</v>
       </c>
@@ -4340,7 +3706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:9">
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>10</v>
       </c>
@@ -4379,8 +3745,8 @@
       <c r="E99" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>18</v>
+      <c r="F99" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -4392,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>10</v>
       </c>
@@ -4419,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>10</v>
       </c>
@@ -4442,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>10</v>
       </c>
@@ -4465,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>10</v>
       </c>
@@ -4486,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>10</v>
       </c>
@@ -4544,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>10</v>
       </c>
@@ -4573,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>10</v>
       </c>
@@ -4622,7 +3988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>10</v>
       </c>
@@ -4671,7 +4037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>10</v>
       </c>
@@ -4693,7 +4059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>10</v>
       </c>
@@ -4722,7 +4088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>10</v>
       </c>
@@ -4763,7 +4129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>10</v>
       </c>
@@ -4803,7 +4169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>10</v>
       </c>
@@ -4823,7 +4189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>10</v>
       </c>
@@ -4843,7 +4209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>10</v>
       </c>
@@ -4863,7 +4229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>10</v>
       </c>
@@ -4885,7 +4251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>10</v>
       </c>
@@ -4905,7 +4271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>10</v>
       </c>
@@ -4925,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>10</v>
       </c>
@@ -4945,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>10</v>
       </c>
@@ -4965,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>10</v>
       </c>
@@ -4985,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>10</v>
       </c>
@@ -5005,7 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>10</v>
       </c>
@@ -5025,7 +4391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>10</v>
       </c>
@@ -5045,7 +4411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>10</v>
       </c>
@@ -5065,7 +4431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>10</v>
       </c>
@@ -5085,7 +4451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>10</v>
       </c>
@@ -5105,7 +4471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>10</v>
       </c>
@@ -5125,7 +4491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>10</v>
       </c>
@@ -5145,7 +4511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>10</v>
       </c>
@@ -5165,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>10</v>
       </c>
@@ -5186,7 +4552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>10</v>
       </c>
@@ -5206,7 +4572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>10</v>
       </c>
@@ -5226,7 +4592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>10</v>
       </c>
@@ -5246,7 +4612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>10</v>
       </c>
@@ -5266,7 +4632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +4652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +4672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>10</v>
       </c>
@@ -5326,7 +4692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>10</v>
       </c>
@@ -5348,7 +4714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>10</v>
       </c>
@@ -5368,7 +4734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>10</v>
       </c>
@@ -5389,29 +4755,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -5425,7 +4790,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:4">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
@@ -5439,7 +4804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:4">
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -5453,7 +4818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:4">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>174</v>
       </c>
@@ -5467,7 +4832,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
@@ -5479,7 +4844,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
@@ -5491,7 +4856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
@@ -5501,7 +4866,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
@@ -5511,7 +4876,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
@@ -5522,7 +4887,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>